--- a/data/case1/15/V1_14.xlsx
+++ b/data/case1/15/V1_14.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999998826769421</v>
+        <v>0.99999999706558784</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99695423767007241</v>
+        <v>0.99753737692907074</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.98430787670413311</v>
+        <v>0.98798131585940441</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.98727000119284125</v>
+        <v>0.99098513655980836</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.97708745680780473</v>
+        <v>0.98084297977282331</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.95265897136052613</v>
+        <v>0.95687860249896428</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.94987590047382109</v>
+        <v>0.95555549951327579</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.94576890392860213</v>
+        <v>0.95342515465177535</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.94300241885213421</v>
+        <v>0.95418489815809526</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.94116648407898729</v>
+        <v>0.95590457001402385</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.94093320328993424</v>
+        <v>0.95705445594230609</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.939599431139162</v>
+        <v>0.95950440224668454</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.93533762744825877</v>
+        <v>0.9546774941276015</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.93433589841927289</v>
+        <v>0.95333444514247945</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.93467423058410026</v>
+        <v>0.95341733562653097</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.93561930121470083</v>
+        <v>0.95091112171053427</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.93946270672821353</v>
+        <v>0.94720344989803018</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.94181835923037993</v>
+        <v>0.94609453502396179</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99590113027948823</v>
+        <v>0.99648413186838214</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.98878447133327119</v>
+        <v>0.98936700376347253</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.98738604890315962</v>
+        <v>0.98796849711669887</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.98612156205582147</v>
+        <v>0.98670399251763907</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.97320961007630857</v>
+        <v>0.97511251109787378</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.95153050116648819</v>
+        <v>0.96209141435595047</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.93660490105037053</v>
+        <v>0.95563437450245758</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.9495270593759918</v>
+        <v>0.9532245701901445</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.94540933982470043</v>
+        <v>0.94837993097111717</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.92757736809609459</v>
+        <v>0.92691336080278564</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.91230919757091278</v>
+        <v>0.91164413805920885</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.90573956628023522</v>
+        <v>0.90507412088633021</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.89808661587052696</v>
+        <v>0.89742047855477269</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.89640740058240964</v>
+        <v>0.89574112265115413</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.89588741930864202</v>
+        <v>0.89522110203486982</v>
       </c>
     </row>
   </sheetData>
